--- a/api/app_api/backlog/email_verification/username_field__positive.xlsx
+++ b/api/app_api/backlog/email_verification/username_field__positive.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\get_logged_in_devices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\email_verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26D4416-FDE1-45CD-87EE-B027D88041DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A9006-8175-4D53-8B75-26D12CED7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="logged_in_username" sheetId="1" r:id="rId1"/>
+    <sheet name="username" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -306,9 +306,6 @@
 6. review the response status code.</t>
   </si>
   <si>
-    <t>Test Scenario: Logged In Devices Username Field (positive)</t>
-  </si>
-  <si>
     <t>1. open the postman
 2. create or open the saved request
 3. define request(method -POST )
@@ -435,6 +432,9 @@
 4. fill the other required field with valid credentials and goto username field
 5. verify username field with valid email format containing a hyphen at the beginning of the local part
 6. review the response status code.</t>
+  </si>
+  <si>
+    <t>Test Scenario: Username Field (positive)</t>
   </si>
 </sst>
 </file>
@@ -747,6 +747,33 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -776,6 +803,37 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -819,6 +877,37 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -846,6 +935,34 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -883,11 +1000,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -895,10 +1008,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -959,95 +1070,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1066,7 +1088,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1074,33 +1100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1663,13 +1663,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G7" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="test with valid email address format" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST )_x000a_4. fill the other required field with valid credentials and goto username field_x000a_5. send the request with with valid email address format_x000a_6. review the response status code." dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="should return a successful response with status code 200" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="test with valid email address format" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST )_x000a_4. fill the other required field with valid credentials and goto username field_x000a_5. send the request with with valid email address format_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="should return a successful response with status code 200" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1897,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2408,7 +2408,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>33</v>
@@ -2448,7 +2448,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>33</v>
@@ -2488,7 +2488,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>33</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>33</v>
@@ -2568,7 +2568,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>33</v>
@@ -2608,7 +2608,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>33</v>
@@ -2648,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>33</v>
@@ -2688,7 +2688,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>33</v>
@@ -2728,7 +2728,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>33</v>
@@ -2768,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>33</v>
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>33</v>
@@ -2848,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>33</v>
@@ -2968,7 +2968,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>33</v>
@@ -3008,7 +3008,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>33</v>
